--- a/SLOSH och LNU medelvärden och n per SSYK för harmonisering.xlsx
+++ b/SLOSH och LNU medelvärden och n per SSYK för harmonisering.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>z670_mean</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>z616_count</t>
-  </si>
-  <si>
-    <t>z624_mean</t>
-  </si>
-  <si>
-    <t>z624_count</t>
   </si>
   <si>
     <t>z647_mean</t>
@@ -584,15 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS45"/>
+  <dimension ref="A1:BQ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -798,14 +792,8 @@
       <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:69">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -864,79 +852,79 @@
         <v>3</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="W2">
         <v>3</v>
       </c>
       <c r="X2">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y2">
         <v>3</v>
       </c>
       <c r="Z2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <v>3</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AG2">
         <v>3</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AI2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AK2">
         <v>2</v>
       </c>
       <c r="AL2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>50.5</v>
+      </c>
+      <c r="AO2">
         <v>2</v>
       </c>
-      <c r="AN2">
-        <v>1979</v>
-      </c>
-      <c r="AO2">
-        <v>3</v>
-      </c>
       <c r="AP2">
-        <v>50.5</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>1</v>
@@ -948,13 +936,13 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -966,19 +954,19 @@
         <v>1</v>
       </c>
       <c r="BB2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC2">
         <v>1</v>
       </c>
       <c r="BD2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE2">
         <v>1</v>
       </c>
       <c r="BF2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG2">
         <v>1</v>
@@ -1008,19 +996,13 @@
         <v>1</v>
       </c>
       <c r="BP2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ2">
         <v>1</v>
       </c>
-      <c r="BR2">
-        <v>2</v>
-      </c>
-      <c r="BS2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:71">
+    <row r="3" spans="1:69">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1079,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="U3">
         <v>11</v>
       </c>
       <c r="V3">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>11</v>
       </c>
       <c r="X3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -1103,79 +1085,79 @@
         <v>11</v>
       </c>
       <c r="AB3">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC3">
         <v>11</v>
       </c>
       <c r="AD3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AE3">
         <v>11</v>
       </c>
       <c r="AF3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG3">
         <v>11</v>
       </c>
       <c r="AH3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AI3">
         <v>11</v>
       </c>
       <c r="AJ3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AK3">
         <v>11</v>
       </c>
       <c r="AL3">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM3">
         <v>11</v>
       </c>
       <c r="AN3">
-        <v>1997.5</v>
+        <v>17.4</v>
       </c>
       <c r="AO3">
         <v>11</v>
       </c>
       <c r="AP3">
-        <v>17.4</v>
+        <v>2.8</v>
       </c>
       <c r="AQ3">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="AR3">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS3">
         <v>79</v>
       </c>
       <c r="AT3">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AV3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AW3">
         <v>78</v>
       </c>
       <c r="AX3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AY3">
         <v>78</v>
       </c>
       <c r="AZ3">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BA3">
         <v>78</v>
@@ -1184,58 +1166,52 @@
         <v>2.8</v>
       </c>
       <c r="BC3">
+        <v>77</v>
+      </c>
+      <c r="BD3">
+        <v>2.7</v>
+      </c>
+      <c r="BE3">
         <v>78</v>
       </c>
-      <c r="BD3">
-        <v>2.8</v>
-      </c>
-      <c r="BE3">
-        <v>77</v>
-      </c>
       <c r="BF3">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="BG3">
         <v>78</v>
       </c>
       <c r="BH3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI3">
         <v>78</v>
       </c>
       <c r="BJ3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BK3">
         <v>78</v>
       </c>
       <c r="BL3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM3">
         <v>78</v>
       </c>
       <c r="BN3">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="BO3">
         <v>78</v>
       </c>
       <c r="BP3">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="BQ3">
         <v>78</v>
       </c>
-      <c r="BR3">
-        <v>3.2</v>
-      </c>
-      <c r="BS3">
-        <v>78</v>
-      </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:69">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -1294,106 +1270,106 @@
         <v>123</v>
       </c>
       <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>122</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>123</v>
+      </c>
+      <c r="X4">
         <v>1.9</v>
-      </c>
-      <c r="U4">
-        <v>123</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <v>122</v>
-      </c>
-      <c r="X4">
-        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>123</v>
       </c>
       <c r="Z4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AA4">
         <v>123</v>
       </c>
       <c r="AB4">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC4">
         <v>123</v>
       </c>
       <c r="AD4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AE4">
         <v>123</v>
       </c>
       <c r="AF4">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AG4">
         <v>123</v>
       </c>
       <c r="AH4">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AI4">
         <v>123</v>
       </c>
       <c r="AJ4">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="AK4">
         <v>123</v>
       </c>
       <c r="AL4">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AM4">
         <v>123</v>
       </c>
       <c r="AN4">
-        <v>1998</v>
+        <v>28.5</v>
       </c>
       <c r="AO4">
         <v>123</v>
       </c>
       <c r="AP4">
-        <v>28.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ4">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="AR4">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AS4">
         <v>280</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU4">
         <v>280</v>
       </c>
       <c r="AV4">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AW4">
         <v>280</v>
       </c>
       <c r="AX4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AY4">
+        <v>279</v>
+      </c>
+      <c r="AZ4">
+        <v>2.8</v>
+      </c>
+      <c r="BA4">
         <v>280</v>
-      </c>
-      <c r="AZ4">
-        <v>2.9</v>
-      </c>
-      <c r="BA4">
-        <v>279</v>
       </c>
       <c r="BB4">
         <v>2.8</v>
@@ -1402,55 +1378,49 @@
         <v>280</v>
       </c>
       <c r="BD4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="BE4">
         <v>280</v>
       </c>
       <c r="BF4">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BG4">
         <v>280</v>
       </c>
       <c r="BH4">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BI4">
         <v>280</v>
       </c>
       <c r="BJ4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BK4">
         <v>280</v>
       </c>
       <c r="BL4">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="BM4">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BN4">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="BO4">
+        <v>284</v>
+      </c>
+      <c r="BP4">
+        <v>3.3</v>
+      </c>
+      <c r="BQ4">
         <v>285</v>
       </c>
-      <c r="BP4">
-        <v>3.7</v>
-      </c>
-      <c r="BQ4">
-        <v>284</v>
-      </c>
-      <c r="BR4">
-        <v>3.3</v>
-      </c>
-      <c r="BS4">
-        <v>285</v>
-      </c>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -1509,213 +1479,213 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="U5">
         <v>22</v>
       </c>
       <c r="V5">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>22</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>22</v>
       </c>
       <c r="Z5">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA5">
         <v>22</v>
       </c>
       <c r="AB5">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC5">
         <v>22</v>
       </c>
       <c r="AD5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE5">
         <v>22</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AG5">
         <v>22</v>
       </c>
       <c r="AH5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI5">
         <v>22</v>
       </c>
       <c r="AJ5">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK5">
         <v>22</v>
       </c>
       <c r="AL5">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="AM5">
         <v>22</v>
       </c>
       <c r="AN5">
-        <v>2005.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO5">
         <v>22</v>
       </c>
       <c r="AP5">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="AQ5">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="AR5">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AS5">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AT5">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AU5">
         <v>319</v>
       </c>
       <c r="AV5">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AW5">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AX5">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AY5">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AZ5">
         <v>2.8</v>
       </c>
       <c r="BA5">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BB5">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BC5">
         <v>323</v>
       </c>
       <c r="BD5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BE5">
         <v>323</v>
       </c>
       <c r="BF5">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="BG5">
         <v>323</v>
       </c>
       <c r="BH5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BI5">
         <v>323</v>
       </c>
       <c r="BJ5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BK5">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BL5">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="BM5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="BN5">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BO5">
         <v>326</v>
       </c>
       <c r="BP5">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BQ5">
         <v>326</v>
       </c>
-      <c r="BR5">
-        <v>3.3</v>
-      </c>
-      <c r="BS5">
-        <v>326</v>
-      </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <v>14</v>
       </c>
+      <c r="AP6">
+        <v>2.9</v>
+      </c>
+      <c r="AQ6">
+        <v>96</v>
+      </c>
       <c r="AR6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AS6">
         <v>96</v>
       </c>
       <c r="AT6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU6">
         <v>96</v>
       </c>
       <c r="AV6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AW6">
         <v>96</v>
       </c>
       <c r="AX6">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AY6">
         <v>96</v>
       </c>
       <c r="AZ6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BA6">
         <v>96</v>
       </c>
       <c r="BB6">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="BC6">
         <v>96</v>
       </c>
       <c r="BD6">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BE6">
+        <v>95</v>
+      </c>
+      <c r="BF6">
+        <v>3.8</v>
+      </c>
+      <c r="BG6">
         <v>96</v>
-      </c>
-      <c r="BF6">
-        <v>2.9</v>
-      </c>
-      <c r="BG6">
-        <v>95</v>
       </c>
       <c r="BH6">
         <v>3.8</v>
@@ -1724,90 +1694,90 @@
         <v>96</v>
       </c>
       <c r="BJ6">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BK6">
         <v>96</v>
       </c>
       <c r="BL6">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="BM6">
+        <v>97</v>
+      </c>
+      <c r="BN6">
+        <v>3.7</v>
+      </c>
+      <c r="BO6">
         <v>96</v>
       </c>
-      <c r="BN6">
-        <v>2.4</v>
-      </c>
-      <c r="BO6">
-        <v>97</v>
-      </c>
       <c r="BP6">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BQ6">
         <v>96</v>
       </c>
-      <c r="BR6">
-        <v>3.2</v>
-      </c>
-      <c r="BS6">
-        <v>96</v>
-      </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <v>15</v>
       </c>
+      <c r="AP7">
+        <v>2.8</v>
+      </c>
+      <c r="AQ7">
+        <v>231</v>
+      </c>
       <c r="AR7">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AS7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AT7">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AU7">
         <v>230</v>
       </c>
       <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>231</v>
+      </c>
+      <c r="AX7">
         <v>2.9</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>230</v>
-      </c>
-      <c r="AX7">
-        <v>3</v>
-      </c>
-      <c r="AY7">
-        <v>231</v>
       </c>
       <c r="AZ7">
         <v>2.9</v>
       </c>
       <c r="BA7">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BB7">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BC7">
         <v>231</v>
       </c>
       <c r="BD7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BE7">
         <v>231</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="BG7">
         <v>231</v>
       </c>
       <c r="BH7">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI7">
         <v>231</v>
@@ -1819,48 +1789,48 @@
         <v>231</v>
       </c>
       <c r="BL7">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="BM7">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BN7">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="BO7">
         <v>233</v>
       </c>
       <c r="BP7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BQ7">
         <v>233</v>
       </c>
-      <c r="BR7">
-        <v>3</v>
-      </c>
-      <c r="BS7">
-        <v>233</v>
-      </c>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <v>16</v>
       </c>
+      <c r="AP8">
+        <v>2.8</v>
+      </c>
+      <c r="AQ8">
+        <v>14</v>
+      </c>
       <c r="AR8">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AS8">
         <v>14</v>
       </c>
       <c r="AT8">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU8">
         <v>14</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AW8">
         <v>14</v>
@@ -1878,19 +1848,19 @@
         <v>14</v>
       </c>
       <c r="BB8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BC8">
         <v>14</v>
       </c>
       <c r="BD8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE8">
         <v>14</v>
       </c>
       <c r="BF8">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="BG8">
         <v>14</v>
@@ -1902,42 +1872,42 @@
         <v>14</v>
       </c>
       <c r="BJ8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BK8">
         <v>14</v>
       </c>
       <c r="BL8">
+        <v>2.7</v>
+      </c>
+      <c r="BM8">
+        <v>15</v>
+      </c>
+      <c r="BN8">
         <v>3.4</v>
-      </c>
-      <c r="BM8">
-        <v>14</v>
-      </c>
-      <c r="BN8">
-        <v>2.7</v>
       </c>
       <c r="BO8">
         <v>15</v>
       </c>
       <c r="BP8">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BQ8">
         <v>15</v>
       </c>
-      <c r="BR8">
-        <v>3.1</v>
-      </c>
-      <c r="BS8">
-        <v>15</v>
-      </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <v>17</v>
       </c>
+      <c r="AP9">
+        <v>2.8</v>
+      </c>
+      <c r="AQ9">
+        <v>87</v>
+      </c>
       <c r="AR9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS9">
         <v>87</v>
@@ -1949,19 +1919,19 @@
         <v>87</v>
       </c>
       <c r="AV9">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AW9">
+        <v>88</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9">
         <v>87</v>
       </c>
-      <c r="AX9">
-        <v>3.2</v>
-      </c>
-      <c r="AY9">
-        <v>88</v>
-      </c>
       <c r="AZ9">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BA9">
         <v>87</v>
@@ -1970,58 +1940,52 @@
         <v>2.8</v>
       </c>
       <c r="BC9">
+        <v>88</v>
+      </c>
+      <c r="BD9">
+        <v>2.2</v>
+      </c>
+      <c r="BE9">
         <v>87</v>
       </c>
-      <c r="BD9">
-        <v>2.8</v>
-      </c>
-      <c r="BE9">
+      <c r="BF9">
+        <v>3.6</v>
+      </c>
+      <c r="BG9">
         <v>88</v>
       </c>
-      <c r="BF9">
-        <v>2.2</v>
-      </c>
-      <c r="BG9">
-        <v>87</v>
-      </c>
       <c r="BH9">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI9">
         <v>88</v>
       </c>
       <c r="BJ9">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BK9">
         <v>88</v>
       </c>
       <c r="BL9">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BM9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BN9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="BO9">
         <v>86</v>
       </c>
       <c r="BP9">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BQ9">
         <v>86</v>
       </c>
-      <c r="BR9">
-        <v>3.4</v>
-      </c>
-      <c r="BS9">
-        <v>86</v>
-      </c>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -2080,43 +2044,43 @@
         <v>166</v>
       </c>
       <c r="T10">
+        <v>5.7</v>
+      </c>
+      <c r="U10">
+        <v>164</v>
+      </c>
+      <c r="V10">
+        <v>1.3</v>
+      </c>
+      <c r="W10">
+        <v>166</v>
+      </c>
+      <c r="X10">
         <v>1.9</v>
-      </c>
-      <c r="U10">
-        <v>166</v>
-      </c>
-      <c r="V10">
-        <v>5.7</v>
-      </c>
-      <c r="W10">
-        <v>164</v>
-      </c>
-      <c r="X10">
-        <v>1.3</v>
       </c>
       <c r="Y10">
         <v>166</v>
       </c>
       <c r="Z10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AA10">
         <v>166</v>
       </c>
       <c r="AB10">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC10">
+        <v>165</v>
+      </c>
+      <c r="AD10">
+        <v>4.2</v>
+      </c>
+      <c r="AE10">
         <v>166</v>
       </c>
-      <c r="AD10">
-        <v>3.7</v>
-      </c>
-      <c r="AE10">
-        <v>165</v>
-      </c>
       <c r="AF10">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AG10">
         <v>166</v>
@@ -2128,49 +2092,49 @@
         <v>166</v>
       </c>
       <c r="AJ10">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="AK10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL10">
-        <v>5.2</v>
+        <v>10.9</v>
       </c>
       <c r="AM10">
         <v>165</v>
       </c>
       <c r="AN10">
-        <v>2000.1</v>
+        <v>11.1</v>
       </c>
       <c r="AO10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AP10">
-        <v>11.1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>166</v>
+        <v>432</v>
       </c>
       <c r="AR10">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AS10">
+        <v>430</v>
+      </c>
+      <c r="AT10">
+        <v>2.6</v>
+      </c>
+      <c r="AU10">
+        <v>431</v>
+      </c>
+      <c r="AV10">
+        <v>2.8</v>
+      </c>
+      <c r="AW10">
         <v>432</v>
       </c>
-      <c r="AT10">
-        <v>2.8</v>
-      </c>
-      <c r="AU10">
-        <v>430</v>
-      </c>
-      <c r="AV10">
-        <v>2.6</v>
-      </c>
-      <c r="AW10">
-        <v>431</v>
-      </c>
       <c r="AX10">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AY10">
         <v>432</v>
@@ -2179,64 +2143,58 @@
         <v>2.7</v>
       </c>
       <c r="BA10">
+        <v>431</v>
+      </c>
+      <c r="BB10">
+        <v>2.9</v>
+      </c>
+      <c r="BC10">
         <v>432</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>2.7</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>431</v>
       </c>
-      <c r="BD10">
-        <v>2.9</v>
-      </c>
-      <c r="BE10">
+      <c r="BF10">
+        <v>3.7</v>
+      </c>
+      <c r="BG10">
         <v>432</v>
       </c>
-      <c r="BF10">
-        <v>2.7</v>
-      </c>
-      <c r="BG10">
-        <v>431</v>
-      </c>
       <c r="BH10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI10">
         <v>432</v>
       </c>
       <c r="BJ10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BK10">
         <v>432</v>
       </c>
       <c r="BL10">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="BM10">
         <v>432</v>
       </c>
       <c r="BN10">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="BO10">
         <v>432</v>
       </c>
       <c r="BP10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="BQ10">
         <v>432</v>
       </c>
-      <c r="BR10">
-        <v>3.1</v>
-      </c>
-      <c r="BS10">
-        <v>432</v>
-      </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -2295,163 +2253,157 @@
         <v>63</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="U11">
         <v>63</v>
       </c>
       <c r="V11">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
         <v>63</v>
       </c>
       <c r="X11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y11">
         <v>63</v>
       </c>
       <c r="Z11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA11">
         <v>63</v>
       </c>
       <c r="AB11">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC11">
         <v>63</v>
       </c>
       <c r="AD11">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AE11">
         <v>63</v>
       </c>
       <c r="AF11">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AG11">
         <v>63</v>
       </c>
       <c r="AH11">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AI11">
         <v>63</v>
       </c>
       <c r="AJ11">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK11">
         <v>63</v>
       </c>
       <c r="AL11">
-        <v>8.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="AM11">
         <v>63</v>
       </c>
       <c r="AN11">
-        <v>1998.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO11">
         <v>63</v>
       </c>
       <c r="AP11">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AQ11">
-        <v>63</v>
+        <v>872</v>
       </c>
       <c r="AR11">
+        <v>2.9</v>
+      </c>
+      <c r="AS11">
+        <v>874</v>
+      </c>
+      <c r="AT11">
         <v>2.7</v>
       </c>
-      <c r="AS11">
-        <v>872</v>
-      </c>
-      <c r="AT11">
-        <v>2.9</v>
-      </c>
       <c r="AU11">
+        <v>870</v>
+      </c>
+      <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11">
         <v>874</v>
       </c>
-      <c r="AV11">
-        <v>2.7</v>
-      </c>
-      <c r="AW11">
+      <c r="AX11">
+        <v>2.8</v>
+      </c>
+      <c r="AY11">
         <v>870</v>
-      </c>
-      <c r="AX11">
-        <v>3</v>
-      </c>
-      <c r="AY11">
-        <v>874</v>
       </c>
       <c r="AZ11">
         <v>2.8</v>
       </c>
       <c r="BA11">
+        <v>874</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>873</v>
+      </c>
+      <c r="BD11">
+        <v>2.7</v>
+      </c>
+      <c r="BE11">
         <v>870</v>
       </c>
-      <c r="BB11">
-        <v>2.8</v>
-      </c>
-      <c r="BC11">
+      <c r="BF11">
+        <v>3.8</v>
+      </c>
+      <c r="BG11">
         <v>874</v>
       </c>
-      <c r="BD11">
+      <c r="BH11">
+        <v>3.6</v>
+      </c>
+      <c r="BI11">
+        <v>873</v>
+      </c>
+      <c r="BJ11">
+        <v>3.4</v>
+      </c>
+      <c r="BK11">
+        <v>874</v>
+      </c>
+      <c r="BL11">
         <v>3</v>
       </c>
-      <c r="BE11">
-        <v>873</v>
-      </c>
-      <c r="BF11">
+      <c r="BM11">
+        <v>878</v>
+      </c>
+      <c r="BN11">
+        <v>3.2</v>
+      </c>
+      <c r="BO11">
+        <v>877</v>
+      </c>
+      <c r="BP11">
         <v>2.7</v>
-      </c>
-      <c r="BG11">
-        <v>870</v>
-      </c>
-      <c r="BH11">
-        <v>3.8</v>
-      </c>
-      <c r="BI11">
-        <v>874</v>
-      </c>
-      <c r="BJ11">
-        <v>3.6</v>
-      </c>
-      <c r="BK11">
-        <v>873</v>
-      </c>
-      <c r="BL11">
-        <v>3.4</v>
-      </c>
-      <c r="BM11">
-        <v>874</v>
-      </c>
-      <c r="BN11">
-        <v>3</v>
-      </c>
-      <c r="BO11">
-        <v>878</v>
-      </c>
-      <c r="BP11">
-        <v>3.2</v>
       </c>
       <c r="BQ11">
         <v>877</v>
       </c>
-      <c r="BR11">
-        <v>2.7</v>
-      </c>
-      <c r="BS11">
-        <v>877</v>
-      </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:69">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -2510,43 +2462,43 @@
         <v>170</v>
       </c>
       <c r="T12">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="U12">
+        <v>163</v>
+      </c>
+      <c r="V12">
+        <v>1.7</v>
+      </c>
+      <c r="W12">
+        <v>170</v>
+      </c>
+      <c r="X12">
+        <v>1.8</v>
+      </c>
+      <c r="Y12">
         <v>169</v>
       </c>
-      <c r="V12">
-        <v>5.9</v>
-      </c>
-      <c r="W12">
-        <v>163</v>
-      </c>
-      <c r="X12">
-        <v>1.7</v>
-      </c>
-      <c r="Y12">
-        <v>170</v>
-      </c>
       <c r="Z12">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA12">
         <v>169</v>
       </c>
       <c r="AB12">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="AC12">
         <v>169</v>
       </c>
       <c r="AD12">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AE12">
         <v>169</v>
       </c>
       <c r="AF12">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AG12">
         <v>169</v>
@@ -2558,34 +2510,34 @@
         <v>169</v>
       </c>
       <c r="AJ12">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="AK12">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL12">
-        <v>6.6</v>
+        <v>13.8</v>
       </c>
       <c r="AM12">
+        <v>170</v>
+      </c>
+      <c r="AN12">
+        <v>15.8</v>
+      </c>
+      <c r="AO12">
         <v>168</v>
       </c>
-      <c r="AN12">
-        <v>1997.2</v>
-      </c>
-      <c r="AO12">
-        <v>170</v>
-      </c>
       <c r="AP12">
-        <v>15.8</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12">
-        <v>168</v>
+        <v>1136</v>
       </c>
       <c r="AR12">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AS12">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="AT12">
         <v>2.8</v>
@@ -2597,76 +2549,70 @@
         <v>2.8</v>
       </c>
       <c r="AW12">
+        <v>1141</v>
+      </c>
+      <c r="AX12">
+        <v>2.6</v>
+      </c>
+      <c r="AY12">
         <v>1139</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
+        <v>2.9</v>
+      </c>
+      <c r="BA12">
+        <v>1142</v>
+      </c>
+      <c r="BB12">
+        <v>2.6</v>
+      </c>
+      <c r="BC12">
+        <v>1140</v>
+      </c>
+      <c r="BD12">
         <v>2.8</v>
       </c>
-      <c r="AY12">
+      <c r="BE12">
+        <v>1138</v>
+      </c>
+      <c r="BF12">
+        <v>3.8</v>
+      </c>
+      <c r="BG12">
+        <v>1140</v>
+      </c>
+      <c r="BH12">
+        <v>3.9</v>
+      </c>
+      <c r="BI12">
         <v>1141</v>
       </c>
-      <c r="AZ12">
-        <v>2.6</v>
-      </c>
-      <c r="BA12">
-        <v>1139</v>
-      </c>
-      <c r="BB12">
-        <v>2.9</v>
-      </c>
-      <c r="BC12">
-        <v>1142</v>
-      </c>
-      <c r="BD12">
-        <v>2.6</v>
-      </c>
-      <c r="BE12">
+      <c r="BJ12">
+        <v>3.5</v>
+      </c>
+      <c r="BK12">
         <v>1140</v>
       </c>
-      <c r="BF12">
+      <c r="BL12">
         <v>2.8</v>
       </c>
-      <c r="BG12">
-        <v>1138</v>
-      </c>
-      <c r="BH12">
-        <v>3.8</v>
-      </c>
-      <c r="BI12">
-        <v>1140</v>
-      </c>
-      <c r="BJ12">
-        <v>3.9</v>
-      </c>
-      <c r="BK12">
-        <v>1141</v>
-      </c>
-      <c r="BL12">
-        <v>3.5</v>
-      </c>
       <c r="BM12">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="BN12">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="BO12">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="BP12">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="BQ12">
-        <v>1144</v>
-      </c>
-      <c r="BR12">
-        <v>3.1</v>
-      </c>
-      <c r="BS12">
         <v>1143</v>
       </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:69">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -2725,43 +2671,43 @@
         <v>233</v>
       </c>
       <c r="T13">
+        <v>5.4</v>
+      </c>
+      <c r="U13">
+        <v>229</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13">
+        <v>233</v>
+      </c>
+      <c r="X13">
         <v>1.9</v>
-      </c>
-      <c r="U13">
-        <v>233</v>
-      </c>
-      <c r="V13">
-        <v>5.4</v>
-      </c>
-      <c r="W13">
-        <v>229</v>
-      </c>
-      <c r="X13">
-        <v>1.4</v>
       </c>
       <c r="Y13">
         <v>233</v>
       </c>
       <c r="Z13">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AA13">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB13">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC13">
         <v>232</v>
       </c>
       <c r="AD13">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AE13">
         <v>232</v>
       </c>
       <c r="AF13">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG13">
         <v>232</v>
@@ -2773,171 +2719,171 @@
         <v>232</v>
       </c>
       <c r="AJ13">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AK13">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL13">
-        <v>5.3</v>
+        <v>10.3</v>
       </c>
       <c r="AM13">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AN13">
-        <v>2000.7</v>
+        <v>6.5</v>
       </c>
       <c r="AO13">
         <v>233</v>
       </c>
       <c r="AP13">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ13">
-        <v>233</v>
+        <v>640</v>
       </c>
       <c r="AR13">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AS13">
+        <v>641</v>
+      </c>
+      <c r="AT13">
+        <v>2.7</v>
+      </c>
+      <c r="AU13">
+        <v>639</v>
+      </c>
+      <c r="AV13">
+        <v>2.9</v>
+      </c>
+      <c r="AW13">
+        <v>642</v>
+      </c>
+      <c r="AX13">
+        <v>2.8</v>
+      </c>
+      <c r="AY13">
+        <v>638</v>
+      </c>
+      <c r="AZ13">
+        <v>2.7</v>
+      </c>
+      <c r="BA13">
         <v>640</v>
       </c>
-      <c r="AT13">
-        <v>2.8</v>
-      </c>
-      <c r="AU13">
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
         <v>641</v>
       </c>
-      <c r="AV13">
+      <c r="BD13">
         <v>2.7</v>
       </c>
-      <c r="AW13">
-        <v>639</v>
-      </c>
-      <c r="AX13">
-        <v>2.9</v>
-      </c>
-      <c r="AY13">
+      <c r="BE13">
+        <v>640</v>
+      </c>
+      <c r="BF13">
+        <v>3.7</v>
+      </c>
+      <c r="BG13">
         <v>642</v>
       </c>
-      <c r="AZ13">
-        <v>2.8</v>
-      </c>
-      <c r="BA13">
-        <v>638</v>
-      </c>
-      <c r="BB13">
-        <v>2.7</v>
-      </c>
-      <c r="BC13">
-        <v>640</v>
-      </c>
-      <c r="BD13">
-        <v>3</v>
-      </c>
-      <c r="BE13">
+      <c r="BH13">
+        <v>3.5</v>
+      </c>
+      <c r="BI13">
         <v>641</v>
-      </c>
-      <c r="BF13">
-        <v>2.7</v>
-      </c>
-      <c r="BG13">
-        <v>640</v>
-      </c>
-      <c r="BH13">
-        <v>3.7</v>
-      </c>
-      <c r="BI13">
-        <v>642</v>
       </c>
       <c r="BJ13">
         <v>3.5</v>
       </c>
       <c r="BK13">
+        <v>640</v>
+      </c>
+      <c r="BL13">
+        <v>2.6</v>
+      </c>
+      <c r="BM13">
+        <v>643</v>
+      </c>
+      <c r="BN13">
+        <v>3.5</v>
+      </c>
+      <c r="BO13">
         <v>641</v>
       </c>
-      <c r="BL13">
-        <v>3.5</v>
-      </c>
-      <c r="BM13">
+      <c r="BP13">
+        <v>2.9</v>
+      </c>
+      <c r="BQ13">
         <v>640</v>
       </c>
-      <c r="BN13">
-        <v>2.6</v>
-      </c>
-      <c r="BO13">
-        <v>643</v>
-      </c>
-      <c r="BP13">
-        <v>3.5</v>
-      </c>
-      <c r="BQ13">
-        <v>641</v>
-      </c>
-      <c r="BR13">
-        <v>2.9</v>
-      </c>
-      <c r="BS13">
-        <v>640</v>
-      </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:69">
       <c r="A14" s="1">
         <v>25</v>
       </c>
+      <c r="AP14">
+        <v>2.5</v>
+      </c>
+      <c r="AQ14">
+        <v>361</v>
+      </c>
       <c r="AR14">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AS14">
         <v>361</v>
       </c>
       <c r="AT14">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AU14">
         <v>361</v>
       </c>
       <c r="AV14">
+        <v>2.8</v>
+      </c>
+      <c r="AW14">
+        <v>360</v>
+      </c>
+      <c r="AX14">
         <v>2.5</v>
       </c>
-      <c r="AW14">
-        <v>361</v>
-      </c>
-      <c r="AX14">
-        <v>2.8</v>
-      </c>
       <c r="AY14">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AZ14">
         <v>2.5</v>
       </c>
       <c r="BA14">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BB14">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="BC14">
+        <v>361</v>
+      </c>
+      <c r="BD14">
+        <v>2.8</v>
+      </c>
+      <c r="BE14">
         <v>360</v>
       </c>
-      <c r="BD14">
-        <v>3.1</v>
-      </c>
-      <c r="BE14">
-        <v>361</v>
-      </c>
       <c r="BF14">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="BG14">
         <v>360</v>
       </c>
       <c r="BH14">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI14">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BJ14">
         <v>3.6</v>
@@ -2946,120 +2892,114 @@
         <v>361</v>
       </c>
       <c r="BL14">
+        <v>2.5</v>
+      </c>
+      <c r="BM14">
+        <v>363</v>
+      </c>
+      <c r="BN14">
         <v>3.6</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
+        <v>362</v>
+      </c>
+      <c r="BP14">
+        <v>3</v>
+      </c>
+      <c r="BQ14">
         <v>361</v>
       </c>
-      <c r="BN14">
-        <v>2.5</v>
-      </c>
-      <c r="BO14">
-        <v>363</v>
-      </c>
-      <c r="BP14">
-        <v>3.6</v>
-      </c>
-      <c r="BQ14">
-        <v>362</v>
-      </c>
-      <c r="BR14">
-        <v>3</v>
-      </c>
-      <c r="BS14">
-        <v>361</v>
-      </c>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:69">
       <c r="A15" s="1">
         <v>26</v>
       </c>
+      <c r="AP15">
+        <v>2.5</v>
+      </c>
+      <c r="AQ15">
+        <v>438</v>
+      </c>
       <c r="AR15">
+        <v>2.7</v>
+      </c>
+      <c r="AS15">
+        <v>439</v>
+      </c>
+      <c r="AT15">
         <v>2.5</v>
       </c>
-      <c r="AS15">
-        <v>438</v>
-      </c>
-      <c r="AT15">
+      <c r="AU15">
+        <v>437</v>
+      </c>
+      <c r="AV15">
+        <v>2.9</v>
+      </c>
+      <c r="AW15">
+        <v>440</v>
+      </c>
+      <c r="AX15">
         <v>2.7</v>
       </c>
-      <c r="AU15">
+      <c r="AY15">
         <v>439</v>
       </c>
-      <c r="AV15">
-        <v>2.5</v>
-      </c>
-      <c r="AW15">
-        <v>437</v>
-      </c>
-      <c r="AX15">
-        <v>2.9</v>
-      </c>
-      <c r="AY15">
+      <c r="AZ15">
+        <v>2.6</v>
+      </c>
+      <c r="BA15">
         <v>440</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>439</v>
+      </c>
+      <c r="BD15">
         <v>2.7</v>
-      </c>
-      <c r="BA15">
-        <v>439</v>
-      </c>
-      <c r="BB15">
-        <v>2.6</v>
-      </c>
-      <c r="BC15">
-        <v>440</v>
-      </c>
-      <c r="BD15">
-        <v>3</v>
       </c>
       <c r="BE15">
         <v>439</v>
       </c>
       <c r="BF15">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="BG15">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="BH15">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="BI15">
         <v>441</v>
       </c>
       <c r="BJ15">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BK15">
         <v>441</v>
       </c>
       <c r="BL15">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="BM15">
         <v>441</v>
       </c>
       <c r="BN15">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="BO15">
         <v>441</v>
       </c>
       <c r="BP15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BQ15">
         <v>441</v>
       </c>
-      <c r="BR15">
-        <v>3</v>
-      </c>
-      <c r="BS15">
-        <v>441</v>
-      </c>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:69">
       <c r="A16" s="1">
         <v>31</v>
       </c>
@@ -3118,163 +3058,157 @@
         <v>193</v>
       </c>
       <c r="T16">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="U16">
+        <v>191</v>
+      </c>
+      <c r="V16">
+        <v>1.5</v>
+      </c>
+      <c r="W16">
         <v>193</v>
       </c>
-      <c r="V16">
-        <v>5.7</v>
-      </c>
-      <c r="W16">
-        <v>191</v>
-      </c>
       <c r="X16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z16">
         <v>1.8</v>
       </c>
       <c r="AA16">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB16">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC16">
         <v>193</v>
       </c>
       <c r="AD16">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE16">
         <v>193</v>
       </c>
       <c r="AF16">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG16">
         <v>193</v>
       </c>
       <c r="AH16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AI16">
         <v>193</v>
       </c>
       <c r="AJ16">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AK16">
+        <v>191</v>
+      </c>
+      <c r="AL16">
+        <v>11.9</v>
+      </c>
+      <c r="AM16">
         <v>193</v>
       </c>
-      <c r="AL16">
-        <v>4.3</v>
-      </c>
-      <c r="AM16">
-        <v>191</v>
-      </c>
       <c r="AN16">
-        <v>1999.1</v>
+        <v>8</v>
       </c>
       <c r="AO16">
         <v>193</v>
       </c>
       <c r="AP16">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="AR16">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AS16">
+        <v>551</v>
+      </c>
+      <c r="AT16">
+        <v>2.7</v>
+      </c>
+      <c r="AU16">
+        <v>547</v>
+      </c>
+      <c r="AV16">
+        <v>2.8</v>
+      </c>
+      <c r="AW16">
+        <v>551</v>
+      </c>
+      <c r="AX16">
+        <v>2.5</v>
+      </c>
+      <c r="AY16">
         <v>550</v>
       </c>
-      <c r="AT16">
-        <v>2.9</v>
-      </c>
-      <c r="AU16">
+      <c r="AZ16">
+        <v>2.7</v>
+      </c>
+      <c r="BA16">
         <v>551</v>
       </c>
-      <c r="AV16">
-        <v>2.7</v>
-      </c>
-      <c r="AW16">
-        <v>547</v>
-      </c>
-      <c r="AX16">
-        <v>2.8</v>
-      </c>
-      <c r="AY16">
-        <v>551</v>
-      </c>
-      <c r="AZ16">
-        <v>2.5</v>
-      </c>
-      <c r="BA16">
-        <v>550</v>
-      </c>
       <c r="BB16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BC16">
         <v>551</v>
       </c>
       <c r="BD16">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="BE16">
         <v>551</v>
       </c>
       <c r="BF16">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="BG16">
         <v>551</v>
       </c>
       <c r="BH16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BI16">
         <v>551</v>
       </c>
       <c r="BJ16">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BK16">
         <v>551</v>
       </c>
       <c r="BL16">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BM16">
+        <v>552</v>
+      </c>
+      <c r="BN16">
+        <v>3.4</v>
+      </c>
+      <c r="BO16">
         <v>551</v>
       </c>
-      <c r="BN16">
-        <v>2.8</v>
-      </c>
-      <c r="BO16">
-        <v>552</v>
-      </c>
       <c r="BP16">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BQ16">
         <v>551</v>
       </c>
-      <c r="BR16">
-        <v>2.9</v>
-      </c>
-      <c r="BS16">
-        <v>551</v>
-      </c>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:69">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -3333,19 +3267,19 @@
         <v>81</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="U17">
+        <v>79</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
         <v>80</v>
       </c>
-      <c r="V17">
-        <v>5.2</v>
-      </c>
-      <c r="W17">
-        <v>79</v>
-      </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y17">
         <v>80</v>
@@ -3357,52 +3291,52 @@
         <v>80</v>
       </c>
       <c r="AB17">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC17">
         <v>80</v>
       </c>
       <c r="AD17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AE17">
         <v>80</v>
       </c>
       <c r="AF17">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG17">
         <v>80</v>
       </c>
       <c r="AH17">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AI17">
         <v>80</v>
       </c>
       <c r="AJ17">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK17">
         <v>80</v>
       </c>
       <c r="AL17">
-        <v>5.3</v>
+        <v>10.7</v>
       </c>
       <c r="AM17">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN17">
-        <v>2000.3</v>
+        <v>3.9</v>
       </c>
       <c r="AO17">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP17">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="AQ17">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AR17">
         <v>2.8</v>
@@ -3417,13 +3351,13 @@
         <v>122</v>
       </c>
       <c r="AV17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AW17">
         <v>122</v>
       </c>
       <c r="AX17">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AY17">
         <v>122</v>
@@ -3435,25 +3369,25 @@
         <v>122</v>
       </c>
       <c r="BB17">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BC17">
         <v>122</v>
       </c>
       <c r="BD17">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="BE17">
         <v>122</v>
       </c>
       <c r="BF17">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="BG17">
         <v>122</v>
       </c>
       <c r="BH17">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI17">
         <v>122</v>
@@ -3465,31 +3399,25 @@
         <v>122</v>
       </c>
       <c r="BL17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BM17">
         <v>122</v>
       </c>
       <c r="BN17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BO17">
         <v>122</v>
       </c>
       <c r="BP17">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="BQ17">
         <v>122</v>
       </c>
-      <c r="BR17">
-        <v>2.3</v>
-      </c>
-      <c r="BS17">
-        <v>122</v>
-      </c>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:69">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -3548,163 +3476,157 @@
         <v>83</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="U18">
+        <v>78</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
         <v>83</v>
       </c>
-      <c r="V18">
-        <v>4.9</v>
-      </c>
-      <c r="W18">
-        <v>78</v>
-      </c>
       <c r="X18">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Y18">
         <v>83</v>
       </c>
       <c r="Z18">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA18">
         <v>83</v>
       </c>
       <c r="AB18">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="AC18">
         <v>83</v>
       </c>
       <c r="AD18">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE18">
         <v>83</v>
       </c>
       <c r="AF18">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AG18">
         <v>83</v>
       </c>
       <c r="AH18">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AI18">
         <v>83</v>
       </c>
       <c r="AJ18">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AK18">
         <v>83</v>
       </c>
       <c r="AL18">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AM18">
         <v>83</v>
       </c>
       <c r="AN18">
-        <v>1998.5</v>
+        <v>1.1</v>
       </c>
       <c r="AO18">
         <v>83</v>
       </c>
       <c r="AP18">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18">
-        <v>83</v>
+        <v>952</v>
       </c>
       <c r="AR18">
+        <v>2.9</v>
+      </c>
+      <c r="AS18">
+        <v>953</v>
+      </c>
+      <c r="AT18">
         <v>2.6</v>
       </c>
-      <c r="AS18">
-        <v>952</v>
-      </c>
-      <c r="AT18">
-        <v>2.9</v>
-      </c>
       <c r="AU18">
+        <v>951</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>954</v>
+      </c>
+      <c r="AX18">
+        <v>2.6</v>
+      </c>
+      <c r="AY18">
         <v>953</v>
       </c>
-      <c r="AV18">
-        <v>2.6</v>
-      </c>
-      <c r="AW18">
-        <v>951</v>
-      </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
-      <c r="AY18">
-        <v>954</v>
-      </c>
       <c r="AZ18">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BA18">
         <v>953</v>
       </c>
       <c r="BB18">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BC18">
+        <v>954</v>
+      </c>
+      <c r="BD18">
+        <v>2.6</v>
+      </c>
+      <c r="BE18">
+        <v>951</v>
+      </c>
+      <c r="BF18">
+        <v>3.6</v>
+      </c>
+      <c r="BG18">
         <v>953</v>
       </c>
-      <c r="BD18">
-        <v>3</v>
-      </c>
-      <c r="BE18">
+      <c r="BH18">
+        <v>3.4</v>
+      </c>
+      <c r="BI18">
         <v>954</v>
       </c>
-      <c r="BF18">
-        <v>2.6</v>
-      </c>
-      <c r="BG18">
-        <v>951</v>
-      </c>
-      <c r="BH18">
-        <v>3.6</v>
-      </c>
-      <c r="BI18">
-        <v>953</v>
-      </c>
       <c r="BJ18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK18">
         <v>954</v>
       </c>
       <c r="BL18">
+        <v>2.9</v>
+      </c>
+      <c r="BM18">
+        <v>961</v>
+      </c>
+      <c r="BN18">
         <v>3.3</v>
       </c>
-      <c r="BM18">
-        <v>954</v>
-      </c>
-      <c r="BN18">
+      <c r="BO18">
+        <v>958</v>
+      </c>
+      <c r="BP18">
         <v>2.9</v>
       </c>
-      <c r="BO18">
-        <v>961</v>
-      </c>
-      <c r="BP18">
-        <v>3.3</v>
-      </c>
       <c r="BQ18">
-        <v>958</v>
-      </c>
-      <c r="BR18">
-        <v>2.9</v>
-      </c>
-      <c r="BS18">
         <v>959</v>
       </c>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:69">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -3763,100 +3685,100 @@
         <v>289</v>
       </c>
       <c r="T19">
+        <v>5.2</v>
+      </c>
+      <c r="U19">
+        <v>286</v>
+      </c>
+      <c r="V19">
+        <v>1.6</v>
+      </c>
+      <c r="W19">
+        <v>288</v>
+      </c>
+      <c r="X19">
         <v>1.8</v>
-      </c>
-      <c r="U19">
-        <v>287</v>
-      </c>
-      <c r="V19">
-        <v>5.2</v>
-      </c>
-      <c r="W19">
-        <v>286</v>
-      </c>
-      <c r="X19">
-        <v>1.6</v>
       </c>
       <c r="Y19">
         <v>288</v>
       </c>
       <c r="Z19">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA19">
         <v>288</v>
       </c>
       <c r="AB19">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC19">
         <v>288</v>
       </c>
       <c r="AD19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>288</v>
       </c>
       <c r="AF19">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AG19">
         <v>288</v>
       </c>
       <c r="AH19">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AI19">
         <v>288</v>
       </c>
       <c r="AJ19">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AK19">
+        <v>286</v>
+      </c>
+      <c r="AL19">
+        <v>10.5</v>
+      </c>
+      <c r="AM19">
+        <v>287</v>
+      </c>
+      <c r="AN19">
+        <v>9.5</v>
+      </c>
+      <c r="AO19">
         <v>288</v>
       </c>
-      <c r="AL19">
-        <v>3.6</v>
-      </c>
-      <c r="AM19">
-        <v>286</v>
-      </c>
-      <c r="AN19">
-        <v>2000.5</v>
-      </c>
-      <c r="AO19">
-        <v>287</v>
-      </c>
       <c r="AP19">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="AQ19">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="AR19">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AS19">
         <v>201</v>
       </c>
       <c r="AT19">
+        <v>2.5</v>
+      </c>
+      <c r="AU19">
+        <v>199</v>
+      </c>
+      <c r="AV19">
         <v>2.6</v>
       </c>
-      <c r="AU19">
-        <v>201</v>
-      </c>
-      <c r="AV19">
-        <v>2.5</v>
-      </c>
       <c r="AW19">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX19">
         <v>2.6</v>
       </c>
       <c r="AY19">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AZ19">
         <v>2.6</v>
@@ -3865,114 +3787,114 @@
         <v>201</v>
       </c>
       <c r="BB19">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BC19">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD19">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE19">
         <v>200</v>
       </c>
       <c r="BF19">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="BG19">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BH19">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI19">
         <v>201</v>
       </c>
       <c r="BJ19">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BK19">
         <v>201</v>
       </c>
       <c r="BL19">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BM19">
         <v>201</v>
       </c>
       <c r="BN19">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="BO19">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BP19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BQ19">
         <v>200</v>
       </c>
-      <c r="BR19">
-        <v>3.2</v>
-      </c>
-      <c r="BS19">
-        <v>200</v>
-      </c>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:69">
       <c r="A20" s="1">
         <v>35</v>
       </c>
+      <c r="AP20">
+        <v>2.5</v>
+      </c>
+      <c r="AQ20">
+        <v>89</v>
+      </c>
       <c r="AR20">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AS20">
+        <v>88</v>
+      </c>
+      <c r="AT20">
+        <v>2.7</v>
+      </c>
+      <c r="AU20">
         <v>89</v>
       </c>
-      <c r="AT20">
-        <v>3.1</v>
-      </c>
-      <c r="AU20">
-        <v>88</v>
-      </c>
       <c r="AV20">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AW20">
         <v>89</v>
       </c>
       <c r="AX20">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AY20">
+        <v>88</v>
+      </c>
+      <c r="AZ20">
+        <v>2.5</v>
+      </c>
+      <c r="BA20">
         <v>89</v>
       </c>
-      <c r="AZ20">
-        <v>2.4</v>
-      </c>
-      <c r="BA20">
-        <v>88</v>
-      </c>
       <c r="BB20">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="BC20">
         <v>89</v>
       </c>
       <c r="BD20">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BE20">
         <v>89</v>
       </c>
       <c r="BF20">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BG20">
         <v>89</v>
       </c>
       <c r="BH20">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BI20">
         <v>89</v>
@@ -3984,31 +3906,25 @@
         <v>89</v>
       </c>
       <c r="BL20">
+        <v>2.9</v>
+      </c>
+      <c r="BM20">
+        <v>88</v>
+      </c>
+      <c r="BN20">
         <v>3.5</v>
-      </c>
-      <c r="BM20">
-        <v>89</v>
-      </c>
-      <c r="BN20">
-        <v>2.9</v>
       </c>
       <c r="BO20">
         <v>88</v>
       </c>
       <c r="BP20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BQ20">
         <v>88</v>
       </c>
-      <c r="BR20">
-        <v>3</v>
-      </c>
-      <c r="BS20">
-        <v>88</v>
-      </c>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:69">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -4067,13 +3983,13 @@
         <v>155</v>
       </c>
       <c r="T21">
+        <v>4.4</v>
+      </c>
+      <c r="U21">
+        <v>156</v>
+      </c>
+      <c r="V21">
         <v>1.6</v>
-      </c>
-      <c r="U21">
-        <v>155</v>
-      </c>
-      <c r="V21">
-        <v>4.4</v>
       </c>
       <c r="W21">
         <v>156</v>
@@ -4085,79 +4001,79 @@
         <v>156</v>
       </c>
       <c r="Z21">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AA21">
+        <v>155</v>
+      </c>
+      <c r="AB21">
+        <v>3.3</v>
+      </c>
+      <c r="AC21">
         <v>156</v>
       </c>
-      <c r="AB21">
-        <v>1.7</v>
-      </c>
-      <c r="AC21">
-        <v>155</v>
-      </c>
       <c r="AD21">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE21">
         <v>156</v>
       </c>
       <c r="AF21">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG21">
         <v>156</v>
       </c>
       <c r="AH21">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AI21">
         <v>156</v>
       </c>
       <c r="AJ21">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK21">
+        <v>152</v>
+      </c>
+      <c r="AL21">
+        <v>12.1</v>
+      </c>
+      <c r="AM21">
+        <v>155</v>
+      </c>
+      <c r="AN21">
+        <v>2.3</v>
+      </c>
+      <c r="AO21">
         <v>156</v>
       </c>
-      <c r="AL21">
-        <v>2.2</v>
-      </c>
-      <c r="AM21">
-        <v>152</v>
-      </c>
-      <c r="AN21">
-        <v>1998.9</v>
-      </c>
-      <c r="AO21">
-        <v>155</v>
-      </c>
       <c r="AP21">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>517</v>
+      </c>
+      <c r="AT21">
+        <v>2.7</v>
+      </c>
+      <c r="AU21">
+        <v>518</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>521</v>
+      </c>
+      <c r="AX21">
         <v>2.5</v>
-      </c>
-      <c r="AS21">
-        <v>520</v>
-      </c>
-      <c r="AT21">
-        <v>3</v>
-      </c>
-      <c r="AU21">
-        <v>517</v>
-      </c>
-      <c r="AV21">
-        <v>2.7</v>
-      </c>
-      <c r="AW21">
-        <v>518</v>
-      </c>
-      <c r="AX21">
-        <v>3</v>
       </c>
       <c r="AY21">
         <v>521</v>
@@ -4166,64 +4082,58 @@
         <v>2.5</v>
       </c>
       <c r="BA21">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="BB21">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="BC21">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="BD21">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="BE21">
         <v>520</v>
       </c>
       <c r="BF21">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="BG21">
+        <v>519</v>
+      </c>
+      <c r="BH21">
+        <v>3.2</v>
+      </c>
+      <c r="BI21">
         <v>520</v>
       </c>
-      <c r="BH21">
-        <v>3.4</v>
-      </c>
-      <c r="BI21">
-        <v>519</v>
-      </c>
       <c r="BJ21">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BK21">
         <v>520</v>
       </c>
       <c r="BL21">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BM21">
         <v>520</v>
       </c>
       <c r="BN21">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BO21">
         <v>520</v>
       </c>
       <c r="BP21">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BQ21">
-        <v>520</v>
-      </c>
-      <c r="BR21">
-        <v>2.5</v>
-      </c>
-      <c r="BS21">
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:69">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -4282,97 +4192,97 @@
         <v>40</v>
       </c>
       <c r="T22">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="U22">
         <v>40</v>
       </c>
       <c r="V22">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>40</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y22">
         <v>40</v>
       </c>
       <c r="Z22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AA22">
         <v>40</v>
       </c>
       <c r="AB22">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC22">
         <v>40</v>
       </c>
       <c r="AD22">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AE22">
         <v>40</v>
       </c>
       <c r="AF22">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG22">
         <v>40</v>
       </c>
       <c r="AH22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI22">
         <v>40</v>
       </c>
       <c r="AJ22">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AK22">
         <v>40</v>
       </c>
       <c r="AL22">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="AM22">
         <v>40</v>
       </c>
       <c r="AN22">
-        <v>2004.6</v>
+        <v>0.9</v>
       </c>
       <c r="AO22">
         <v>40</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AR22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS22">
+        <v>101</v>
+      </c>
+      <c r="AT22">
+        <v>2.6</v>
+      </c>
+      <c r="AU22">
         <v>102</v>
       </c>
-      <c r="AT22">
-        <v>3</v>
-      </c>
-      <c r="AU22">
-        <v>101</v>
-      </c>
       <c r="AV22">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AW22">
         <v>102</v>
       </c>
       <c r="AX22">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AY22">
         <v>102</v>
@@ -4384,239 +4294,233 @@
         <v>102</v>
       </c>
       <c r="BB22">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BC22">
         <v>102</v>
       </c>
       <c r="BD22">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="BE22">
         <v>102</v>
       </c>
       <c r="BF22">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BG22">
         <v>102</v>
       </c>
       <c r="BH22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI22">
         <v>102</v>
       </c>
       <c r="BJ22">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK22">
         <v>102</v>
       </c>
       <c r="BL22">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BM22">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BN22">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="BO22">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BP22">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BQ22">
         <v>99</v>
       </c>
-      <c r="BR22">
-        <v>2.3</v>
-      </c>
-      <c r="BS22">
-        <v>99</v>
-      </c>
     </row>
-    <row r="23" spans="1:71">
+    <row r="23" spans="1:69">
       <c r="A23" s="1">
         <v>43</v>
       </c>
+      <c r="AP23">
+        <v>2.6</v>
+      </c>
+      <c r="AQ23">
+        <v>129</v>
+      </c>
       <c r="AR23">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AS23">
         <v>129</v>
       </c>
       <c r="AT23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AU23">
         <v>129</v>
       </c>
       <c r="AV23">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AW23">
         <v>129</v>
       </c>
       <c r="AX23">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AY23">
         <v>129</v>
       </c>
       <c r="AZ23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BA23">
+        <v>128</v>
+      </c>
+      <c r="BB23">
+        <v>3.2</v>
+      </c>
+      <c r="BC23">
         <v>129</v>
       </c>
-      <c r="BB23">
-        <v>2.7</v>
-      </c>
-      <c r="BC23">
+      <c r="BD23">
+        <v>2.5</v>
+      </c>
+      <c r="BE23">
         <v>128</v>
       </c>
-      <c r="BD23">
+      <c r="BF23">
+        <v>3.3</v>
+      </c>
+      <c r="BG23">
+        <v>129</v>
+      </c>
+      <c r="BH23">
         <v>3.2</v>
-      </c>
-      <c r="BE23">
-        <v>129</v>
-      </c>
-      <c r="BF23">
-        <v>2.5</v>
-      </c>
-      <c r="BG23">
-        <v>128</v>
-      </c>
-      <c r="BH23">
-        <v>3.3</v>
       </c>
       <c r="BI23">
         <v>129</v>
       </c>
       <c r="BJ23">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="BK23">
         <v>129</v>
       </c>
       <c r="BL23">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BM23">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BN23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BO23">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP23">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="BQ23">
         <v>126</v>
       </c>
-      <c r="BR23">
-        <v>2.5</v>
-      </c>
-      <c r="BS23">
-        <v>126</v>
-      </c>
     </row>
-    <row r="24" spans="1:71">
+    <row r="24" spans="1:69">
       <c r="A24" s="1">
         <v>44</v>
       </c>
+      <c r="AP24">
+        <v>2.7</v>
+      </c>
+      <c r="AQ24">
+        <v>56</v>
+      </c>
       <c r="AR24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AS24">
         <v>56</v>
       </c>
       <c r="AT24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU24">
         <v>56</v>
       </c>
       <c r="AV24">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AW24">
         <v>56</v>
       </c>
       <c r="AX24">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AY24">
         <v>56</v>
       </c>
       <c r="AZ24">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BA24">
         <v>56</v>
       </c>
       <c r="BB24">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BC24">
         <v>56</v>
       </c>
       <c r="BD24">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BE24">
         <v>56</v>
       </c>
       <c r="BF24">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BG24">
         <v>56</v>
       </c>
       <c r="BH24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BI24">
         <v>56</v>
       </c>
       <c r="BJ24">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="BK24">
         <v>56</v>
       </c>
       <c r="BL24">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BM24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BN24">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BO24">
         <v>57</v>
       </c>
       <c r="BP24">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="BQ24">
         <v>57</v>
       </c>
-      <c r="BR24">
-        <v>2.2</v>
-      </c>
-      <c r="BS24">
-        <v>57</v>
-      </c>
     </row>
-    <row r="25" spans="1:71">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>51</v>
       </c>
@@ -4675,79 +4579,79 @@
         <v>359</v>
       </c>
       <c r="T25">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="U25">
+        <v>348</v>
+      </c>
+      <c r="V25">
+        <v>1.9</v>
+      </c>
+      <c r="W25">
+        <v>359</v>
+      </c>
+      <c r="X25">
+        <v>1.3</v>
+      </c>
+      <c r="Y25">
+        <v>356</v>
+      </c>
+      <c r="Z25">
+        <v>1.5</v>
+      </c>
+      <c r="AA25">
         <v>358</v>
       </c>
-      <c r="V25">
-        <v>4</v>
-      </c>
-      <c r="W25">
-        <v>348</v>
-      </c>
-      <c r="X25">
-        <v>1.9</v>
-      </c>
-      <c r="Y25">
-        <v>359</v>
-      </c>
-      <c r="Z25">
-        <v>1.3</v>
-      </c>
-      <c r="AA25">
-        <v>356</v>
-      </c>
       <c r="AB25">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC25">
         <v>358</v>
       </c>
       <c r="AD25">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE25">
         <v>358</v>
       </c>
       <c r="AF25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG25">
+        <v>355</v>
+      </c>
+      <c r="AH25">
+        <v>4.1</v>
+      </c>
+      <c r="AI25">
         <v>358</v>
       </c>
-      <c r="AH25">
-        <v>3.4</v>
-      </c>
-      <c r="AI25">
-        <v>355</v>
-      </c>
       <c r="AJ25">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK25">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL25">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="AM25">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN25">
-        <v>1999.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO25">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="AR25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AS25">
         <v>284</v>
@@ -4756,43 +4660,43 @@
         <v>2.5</v>
       </c>
       <c r="AU25">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AV25">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AW25">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AX25">
         <v>2.9</v>
       </c>
       <c r="AY25">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ25">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BA25">
+        <v>282</v>
+      </c>
+      <c r="BB25">
+        <v>3.3</v>
+      </c>
+      <c r="BC25">
         <v>283</v>
       </c>
-      <c r="BB25">
-        <v>2.6</v>
-      </c>
-      <c r="BC25">
+      <c r="BD25">
+        <v>2.4</v>
+      </c>
+      <c r="BE25">
         <v>282</v>
       </c>
-      <c r="BD25">
-        <v>3.3</v>
-      </c>
-      <c r="BE25">
+      <c r="BF25">
+        <v>3.5</v>
+      </c>
+      <c r="BG25">
         <v>283</v>
-      </c>
-      <c r="BF25">
-        <v>2.4</v>
-      </c>
-      <c r="BG25">
-        <v>282</v>
       </c>
       <c r="BH25">
         <v>3.5</v>
@@ -4801,37 +4705,31 @@
         <v>283</v>
       </c>
       <c r="BJ25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BK25">
         <v>283</v>
       </c>
       <c r="BL25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BM25">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BN25">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BO25">
+        <v>287</v>
+      </c>
+      <c r="BP25">
+        <v>3.1</v>
+      </c>
+      <c r="BQ25">
         <v>286</v>
       </c>
-      <c r="BP25">
-        <v>3.5</v>
-      </c>
-      <c r="BQ25">
-        <v>287</v>
-      </c>
-      <c r="BR25">
-        <v>3.1</v>
-      </c>
-      <c r="BS25">
-        <v>286</v>
-      </c>
     </row>
-    <row r="26" spans="1:71">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>52</v>
       </c>
@@ -4890,186 +4788,186 @@
         <v>99</v>
       </c>
       <c r="T26">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="U26">
         <v>99</v>
       </c>
       <c r="V26">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
         <v>99</v>
       </c>
       <c r="X26">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y26">
         <v>99</v>
       </c>
       <c r="Z26">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA26">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB26">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC26">
         <v>98</v>
       </c>
       <c r="AD26">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AE26">
         <v>98</v>
       </c>
       <c r="AF26">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG26">
         <v>98</v>
       </c>
       <c r="AH26">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AI26">
         <v>98</v>
       </c>
       <c r="AJ26">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="AK26">
         <v>98</v>
       </c>
       <c r="AL26">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="AM26">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN26">
-        <v>2003.1</v>
+        <v>0.5</v>
       </c>
       <c r="AO26">
         <v>99</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="AR26">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AS26">
+        <v>256</v>
+      </c>
+      <c r="AT26">
+        <v>2.7</v>
+      </c>
+      <c r="AU26">
         <v>255</v>
       </c>
-      <c r="AT26">
+      <c r="AV26">
+        <v>3.1</v>
+      </c>
+      <c r="AW26">
+        <v>256</v>
+      </c>
+      <c r="AX26">
         <v>2.9</v>
-      </c>
-      <c r="AU26">
-        <v>256</v>
-      </c>
-      <c r="AV26">
-        <v>2.7</v>
-      </c>
-      <c r="AW26">
-        <v>255</v>
-      </c>
-      <c r="AX26">
-        <v>3.1</v>
       </c>
       <c r="AY26">
         <v>256</v>
       </c>
       <c r="AZ26">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BA26">
         <v>256</v>
       </c>
       <c r="BB26">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BC26">
         <v>256</v>
       </c>
       <c r="BD26">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="BE26">
         <v>256</v>
       </c>
       <c r="BF26">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="BG26">
         <v>256</v>
       </c>
       <c r="BH26">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI26">
         <v>256</v>
       </c>
       <c r="BJ26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BK26">
         <v>256</v>
       </c>
       <c r="BL26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BM26">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BN26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BO26">
         <v>261</v>
       </c>
       <c r="BP26">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BQ26">
-        <v>261</v>
-      </c>
-      <c r="BR26">
-        <v>2.7</v>
-      </c>
-      <c r="BS26">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:71">
+    <row r="27" spans="1:69">
       <c r="A27" s="1">
         <v>53</v>
       </c>
+      <c r="AP27">
+        <v>2.5</v>
+      </c>
+      <c r="AQ27">
+        <v>1075</v>
+      </c>
       <c r="AR27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AS27">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="AT27">
         <v>2.6</v>
       </c>
       <c r="AU27">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AV27">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AW27">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="AX27">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AY27">
         <v>1083</v>
@@ -5081,108 +4979,108 @@
         <v>1083</v>
       </c>
       <c r="BB27">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BC27">
         <v>1083</v>
       </c>
       <c r="BD27">
+        <v>2.6</v>
+      </c>
+      <c r="BE27">
+        <v>1079</v>
+      </c>
+      <c r="BF27">
+        <v>3.6</v>
+      </c>
+      <c r="BG27">
+        <v>1084</v>
+      </c>
+      <c r="BH27">
+        <v>3.7</v>
+      </c>
+      <c r="BI27">
+        <v>1083</v>
+      </c>
+      <c r="BJ27">
         <v>3.1</v>
       </c>
-      <c r="BE27">
-        <v>1083</v>
-      </c>
-      <c r="BF27">
-        <v>2.6</v>
-      </c>
-      <c r="BG27">
-        <v>1079</v>
-      </c>
-      <c r="BH27">
-        <v>3.6</v>
-      </c>
-      <c r="BI27">
-        <v>1084</v>
-      </c>
-      <c r="BJ27">
-        <v>3.7</v>
-      </c>
       <c r="BK27">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="BL27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BM27">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="BN27">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BO27">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BP27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BQ27">
-        <v>1097</v>
-      </c>
-      <c r="BR27">
-        <v>2.5</v>
-      </c>
-      <c r="BS27">
         <v>1092</v>
       </c>
     </row>
-    <row r="28" spans="1:71">
+    <row r="28" spans="1:69">
       <c r="A28" s="1">
         <v>54</v>
       </c>
+      <c r="AP28">
+        <v>2.5</v>
+      </c>
+      <c r="AQ28">
+        <v>62</v>
+      </c>
       <c r="AR28">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AS28">
         <v>62</v>
       </c>
       <c r="AT28">
+        <v>2.7</v>
+      </c>
+      <c r="AU28">
+        <v>61</v>
+      </c>
+      <c r="AV28">
         <v>2.8</v>
       </c>
-      <c r="AU28">
+      <c r="AW28">
         <v>62</v>
       </c>
-      <c r="AV28">
-        <v>2.7</v>
-      </c>
-      <c r="AW28">
-        <v>61</v>
-      </c>
       <c r="AX28">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AY28">
         <v>62</v>
       </c>
       <c r="AZ28">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BA28">
         <v>62</v>
       </c>
       <c r="BB28">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BC28">
         <v>62</v>
       </c>
       <c r="BD28">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BE28">
         <v>62</v>
       </c>
       <c r="BF28">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BG28">
         <v>62</v>
@@ -5194,37 +5092,31 @@
         <v>62</v>
       </c>
       <c r="BJ28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BK28">
         <v>62</v>
       </c>
       <c r="BL28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BM28">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BN28">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BO28">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BP28">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BQ28">
         <v>60</v>
       </c>
-      <c r="BR28">
-        <v>2.4</v>
-      </c>
-      <c r="BS28">
-        <v>60</v>
-      </c>
     </row>
-    <row r="29" spans="1:71">
+    <row r="29" spans="1:69">
       <c r="A29" s="1">
         <v>61</v>
       </c>
@@ -5283,19 +5175,19 @@
         <v>23</v>
       </c>
       <c r="T29">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="U29">
         <v>24</v>
       </c>
       <c r="V29">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="W29">
         <v>24</v>
       </c>
       <c r="X29">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Y29">
         <v>24</v>
@@ -5307,58 +5199,58 @@
         <v>24</v>
       </c>
       <c r="AB29">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC29">
         <v>24</v>
       </c>
       <c r="AD29">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AE29">
         <v>24</v>
       </c>
       <c r="AF29">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AG29">
         <v>24</v>
       </c>
       <c r="AH29">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AI29">
         <v>24</v>
       </c>
       <c r="AJ29">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="AK29">
+        <v>22</v>
+      </c>
+      <c r="AL29">
+        <v>10.5</v>
+      </c>
+      <c r="AM29">
         <v>24</v>
       </c>
-      <c r="AL29">
-        <v>1.4</v>
-      </c>
-      <c r="AM29">
-        <v>22</v>
-      </c>
       <c r="AN29">
-        <v>2000.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AR29">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AS29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT29">
         <v>2.3</v>
@@ -5367,40 +5259,40 @@
         <v>119</v>
       </c>
       <c r="AV29">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AW29">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AX29">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AY29">
         <v>120</v>
       </c>
       <c r="AZ29">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="BA29">
         <v>120</v>
       </c>
       <c r="BB29">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BC29">
         <v>120</v>
       </c>
       <c r="BD29">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE29">
         <v>120</v>
       </c>
       <c r="BF29">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="BG29">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BH29">
         <v>3.5</v>
@@ -5409,126 +5301,120 @@
         <v>121</v>
       </c>
       <c r="BJ29">
+        <v>3.2</v>
+      </c>
+      <c r="BK29">
+        <v>120</v>
+      </c>
+      <c r="BL29">
         <v>3.5</v>
       </c>
-      <c r="BK29">
+      <c r="BM29">
+        <v>122</v>
+      </c>
+      <c r="BN29">
+        <v>3.6</v>
+      </c>
+      <c r="BO29">
         <v>121</v>
       </c>
-      <c r="BL29">
-        <v>3.2</v>
-      </c>
-      <c r="BM29">
-        <v>120</v>
-      </c>
-      <c r="BN29">
-        <v>3.5</v>
-      </c>
-      <c r="BO29">
-        <v>122</v>
-      </c>
       <c r="BP29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BQ29">
         <v>121</v>
       </c>
-      <c r="BR29">
-        <v>3.3</v>
-      </c>
-      <c r="BS29">
-        <v>121</v>
-      </c>
     </row>
-    <row r="30" spans="1:71">
+    <row r="30" spans="1:69">
       <c r="A30" s="1">
         <v>62</v>
       </c>
+      <c r="AP30">
+        <v>1.8</v>
+      </c>
+      <c r="AQ30">
+        <v>13</v>
+      </c>
       <c r="AR30">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AS30">
         <v>13</v>
       </c>
       <c r="AT30">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AU30">
         <v>13</v>
       </c>
       <c r="AV30">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AW30">
         <v>13</v>
       </c>
       <c r="AX30">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AY30">
         <v>13</v>
       </c>
       <c r="AZ30">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BA30">
         <v>13</v>
       </c>
       <c r="BB30">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="BC30">
         <v>13</v>
       </c>
       <c r="BD30">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="BE30">
         <v>13</v>
       </c>
       <c r="BF30">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="BG30">
         <v>13</v>
       </c>
       <c r="BH30">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BI30">
         <v>13</v>
       </c>
       <c r="BJ30">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BK30">
         <v>13</v>
       </c>
       <c r="BL30">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="BM30">
         <v>13</v>
       </c>
       <c r="BN30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BO30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BQ30">
         <v>12</v>
       </c>
-      <c r="BR30">
-        <v>3.4</v>
-      </c>
-      <c r="BS30">
-        <v>12</v>
-      </c>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:69">
       <c r="A31" s="1">
         <v>71</v>
       </c>
@@ -5587,136 +5473,136 @@
         <v>132</v>
       </c>
       <c r="T31">
+        <v>5.8</v>
+      </c>
+      <c r="U31">
+        <v>129</v>
+      </c>
+      <c r="V31">
+        <v>1.8</v>
+      </c>
+      <c r="W31">
+        <v>130</v>
+      </c>
+      <c r="X31">
         <v>1.7</v>
       </c>
-      <c r="U31">
-        <v>130</v>
-      </c>
-      <c r="V31">
-        <v>5.8</v>
-      </c>
-      <c r="W31">
+      <c r="Y31">
         <v>129</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>1.8</v>
-      </c>
-      <c r="Y31">
-        <v>130</v>
-      </c>
-      <c r="Z31">
-        <v>1.7</v>
       </c>
       <c r="AA31">
         <v>129</v>
       </c>
       <c r="AB31">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC31">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE31">
         <v>130</v>
       </c>
       <c r="AF31">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG31">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH31">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AI31">
         <v>129</v>
       </c>
       <c r="AJ31">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="AK31">
+        <v>130</v>
+      </c>
+      <c r="AL31">
+        <v>9.6</v>
+      </c>
+      <c r="AM31">
         <v>129</v>
       </c>
-      <c r="AL31">
-        <v>2.2</v>
-      </c>
-      <c r="AM31">
-        <v>130</v>
-      </c>
       <c r="AN31">
-        <v>2001.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO31">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="AR31">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS31">
         <v>230</v>
       </c>
       <c r="AT31">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AU31">
+        <v>228</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
         <v>230</v>
       </c>
-      <c r="AV31">
-        <v>2.3</v>
-      </c>
-      <c r="AW31">
-        <v>228</v>
-      </c>
       <c r="AX31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AY31">
         <v>230</v>
       </c>
       <c r="AZ31">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BA31">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BB31">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BC31">
         <v>229</v>
       </c>
       <c r="BD31">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE31">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BF31">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="BG31">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BH31">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI31">
+        <v>230</v>
+      </c>
+      <c r="BJ31">
+        <v>3.1</v>
+      </c>
+      <c r="BK31">
         <v>231</v>
-      </c>
-      <c r="BJ31">
-        <v>3.6</v>
-      </c>
-      <c r="BK31">
-        <v>230</v>
       </c>
       <c r="BL31">
         <v>3.1</v>
@@ -5725,25 +5611,19 @@
         <v>231</v>
       </c>
       <c r="BN31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BO31">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BP31">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BQ31">
         <v>232</v>
       </c>
-      <c r="BR31">
-        <v>2.9</v>
-      </c>
-      <c r="BS31">
-        <v>232</v>
-      </c>
     </row>
-    <row r="32" spans="1:71">
+    <row r="32" spans="1:69">
       <c r="A32" s="1">
         <v>72</v>
       </c>
@@ -5802,163 +5682,157 @@
         <v>75</v>
       </c>
       <c r="T32">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="U32">
+        <v>73</v>
+      </c>
+      <c r="V32">
+        <v>1.6</v>
+      </c>
+      <c r="W32">
         <v>75</v>
-      </c>
-      <c r="V32">
-        <v>5.7</v>
-      </c>
-      <c r="W32">
-        <v>73</v>
       </c>
       <c r="X32">
         <v>1.6</v>
       </c>
       <c r="Y32">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z32">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AA32">
         <v>74</v>
       </c>
       <c r="AB32">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD32">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AE32">
         <v>75</v>
       </c>
       <c r="AF32">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG32">
         <v>75</v>
       </c>
       <c r="AH32">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AI32">
         <v>75</v>
       </c>
       <c r="AJ32">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="AK32">
         <v>75</v>
       </c>
       <c r="AL32">
-        <v>2.4</v>
+        <v>12.8</v>
       </c>
       <c r="AM32">
         <v>75</v>
       </c>
       <c r="AN32">
-        <v>1998.2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>75</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AR32">
         <v>2.5</v>
       </c>
       <c r="AS32">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AT32">
         <v>2.5</v>
       </c>
       <c r="AU32">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AV32">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AW32">
         <v>260</v>
       </c>
       <c r="AX32">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AY32">
         <v>260</v>
       </c>
       <c r="AZ32">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BA32">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BC32">
         <v>259</v>
       </c>
       <c r="BD32">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BE32">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BF32">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="BG32">
         <v>260</v>
       </c>
       <c r="BH32">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BI32">
         <v>260</v>
       </c>
       <c r="BJ32">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BK32">
         <v>260</v>
       </c>
       <c r="BL32">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="BM32">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BN32">
         <v>3.2</v>
       </c>
       <c r="BO32">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BP32">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BQ32">
         <v>260</v>
       </c>
-      <c r="BR32">
-        <v>2.8</v>
-      </c>
-      <c r="BS32">
-        <v>260</v>
-      </c>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="1:69">
       <c r="A33" s="1">
         <v>73</v>
       </c>
@@ -6017,37 +5891,37 @@
         <v>16</v>
       </c>
       <c r="T33">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <v>16</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="W33">
         <v>16</v>
       </c>
       <c r="X33">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y33">
         <v>16</v>
       </c>
       <c r="Z33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA33">
         <v>16</v>
       </c>
       <c r="AB33">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC33">
         <v>16</v>
       </c>
       <c r="AD33">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AE33">
         <v>16</v>
@@ -6059,121 +5933,115 @@
         <v>16</v>
       </c>
       <c r="AH33">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AI33">
         <v>16</v>
       </c>
       <c r="AJ33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AK33">
         <v>16</v>
       </c>
       <c r="AL33">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="AM33">
         <v>16</v>
       </c>
       <c r="AN33">
-        <v>2001.9</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
         <v>16</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="AR33">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS33">
         <v>43</v>
       </c>
       <c r="AT33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU33">
         <v>43</v>
       </c>
       <c r="AV33">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AW33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AX33">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AY33">
         <v>42</v>
       </c>
       <c r="AZ33">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BA33">
         <v>42</v>
       </c>
       <c r="BB33">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="BC33">
         <v>42</v>
       </c>
       <c r="BD33">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="BE33">
         <v>42</v>
       </c>
       <c r="BF33">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="BG33">
         <v>42</v>
       </c>
       <c r="BH33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BI33">
         <v>42</v>
       </c>
       <c r="BJ33">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BK33">
         <v>42</v>
       </c>
       <c r="BL33">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="BM33">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BN33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BO33">
         <v>44</v>
       </c>
       <c r="BP33">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BQ33">
         <v>44</v>
       </c>
-      <c r="BR33">
-        <v>2.9</v>
-      </c>
-      <c r="BS33">
-        <v>44</v>
-      </c>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:69">
       <c r="A34" s="1">
         <v>74</v>
       </c>
@@ -6232,121 +6100,121 @@
         <v>16</v>
       </c>
       <c r="T34">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="U34">
         <v>16</v>
       </c>
       <c r="V34">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>16</v>
       </c>
       <c r="X34">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y34">
         <v>16</v>
       </c>
       <c r="Z34">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AA34">
         <v>16</v>
       </c>
       <c r="AB34">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="AC34">
         <v>16</v>
       </c>
       <c r="AD34">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AE34">
+        <v>15</v>
+      </c>
+      <c r="AF34">
+        <v>3.1</v>
+      </c>
+      <c r="AG34">
         <v>16</v>
       </c>
-      <c r="AF34">
-        <v>3.7</v>
-      </c>
-      <c r="AG34">
-        <v>15</v>
-      </c>
       <c r="AH34">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="AI34">
         <v>16</v>
       </c>
       <c r="AJ34">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="AK34">
+        <v>15</v>
+      </c>
+      <c r="AL34">
+        <v>8.6</v>
+      </c>
+      <c r="AM34">
         <v>16</v>
       </c>
-      <c r="AL34">
-        <v>1.8</v>
-      </c>
-      <c r="AM34">
-        <v>15</v>
-      </c>
       <c r="AN34">
-        <v>2002.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO34">
         <v>16</v>
       </c>
       <c r="AP34">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="AR34">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AS34">
+        <v>106</v>
+      </c>
+      <c r="AT34">
+        <v>2.6</v>
+      </c>
+      <c r="AU34">
         <v>105</v>
       </c>
-      <c r="AT34">
-        <v>2.7</v>
-      </c>
-      <c r="AU34">
+      <c r="AV34">
+        <v>2.9</v>
+      </c>
+      <c r="AW34">
         <v>106</v>
       </c>
-      <c r="AV34">
-        <v>2.6</v>
-      </c>
-      <c r="AW34">
-        <v>105</v>
-      </c>
       <c r="AX34">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AY34">
         <v>106</v>
       </c>
       <c r="AZ34">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BA34">
         <v>106</v>
       </c>
       <c r="BB34">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BC34">
         <v>106</v>
       </c>
       <c r="BD34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE34">
         <v>106</v>
       </c>
       <c r="BF34">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="BG34">
         <v>106</v>
@@ -6358,42 +6226,42 @@
         <v>106</v>
       </c>
       <c r="BJ34">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BK34">
         <v>106</v>
       </c>
       <c r="BL34">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BM34">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BN34">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="BO34">
         <v>110</v>
       </c>
       <c r="BP34">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BQ34">
         <v>110</v>
       </c>
-      <c r="BR34">
-        <v>2.9</v>
-      </c>
-      <c r="BS34">
-        <v>110</v>
-      </c>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:69">
       <c r="A35" s="1">
         <v>75</v>
       </c>
+      <c r="AP35">
+        <v>2.5</v>
+      </c>
+      <c r="AQ35">
+        <v>36</v>
+      </c>
       <c r="AR35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS35">
         <v>36</v>
@@ -6405,7 +6273,7 @@
         <v>36</v>
       </c>
       <c r="AV35">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AW35">
         <v>36</v>
@@ -6417,43 +6285,43 @@
         <v>36</v>
       </c>
       <c r="AZ35">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BA35">
+        <v>35</v>
+      </c>
+      <c r="BB35">
+        <v>3.3</v>
+      </c>
+      <c r="BC35">
         <v>36</v>
       </c>
-      <c r="BB35">
-        <v>2.7</v>
-      </c>
-      <c r="BC35">
-        <v>35</v>
-      </c>
       <c r="BD35">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="BE35">
         <v>36</v>
       </c>
       <c r="BF35">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="BG35">
         <v>36</v>
       </c>
       <c r="BH35">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BI35">
         <v>36</v>
       </c>
       <c r="BJ35">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BK35">
         <v>36</v>
       </c>
       <c r="BL35">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BM35">
         <v>36</v>
@@ -6465,108 +6333,102 @@
         <v>36</v>
       </c>
       <c r="BP35">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BQ35">
         <v>36</v>
       </c>
-      <c r="BR35">
-        <v>2.8</v>
-      </c>
-      <c r="BS35">
-        <v>36</v>
-      </c>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="1:69">
       <c r="A36" s="1">
         <v>76</v>
       </c>
+      <c r="AP36">
+        <v>3.2</v>
+      </c>
+      <c r="AQ36">
+        <v>9</v>
+      </c>
       <c r="AR36">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AS36">
         <v>9</v>
       </c>
       <c r="AT36">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AU36">
         <v>9</v>
       </c>
       <c r="AV36">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AW36">
         <v>9</v>
       </c>
       <c r="AX36">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AY36">
         <v>9</v>
       </c>
       <c r="AZ36">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BA36">
         <v>9</v>
       </c>
       <c r="BB36">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="BC36">
         <v>9</v>
       </c>
       <c r="BD36">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BE36">
         <v>9</v>
       </c>
       <c r="BF36">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BG36">
         <v>9</v>
       </c>
       <c r="BH36">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="BI36">
         <v>9</v>
       </c>
       <c r="BJ36">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="BK36">
         <v>9</v>
       </c>
       <c r="BL36">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="BM36">
         <v>9</v>
       </c>
       <c r="BN36">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="BO36">
         <v>9</v>
       </c>
       <c r="BP36">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BQ36">
         <v>9</v>
       </c>
-      <c r="BR36">
-        <v>2.8</v>
-      </c>
-      <c r="BS36">
-        <v>9</v>
-      </c>
     </row>
-    <row r="37" spans="1:71">
+    <row r="37" spans="1:69">
       <c r="A37" s="1">
         <v>81</v>
       </c>
@@ -6625,97 +6487,97 @@
         <v>36</v>
       </c>
       <c r="T37">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="U37">
         <v>36</v>
       </c>
       <c r="V37">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
+        <v>35</v>
+      </c>
+      <c r="X37">
+        <v>1.3</v>
+      </c>
+      <c r="Y37">
         <v>36</v>
       </c>
-      <c r="X37">
-        <v>1.9</v>
-      </c>
-      <c r="Y37">
-        <v>35</v>
-      </c>
       <c r="Z37">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AA37">
         <v>36</v>
       </c>
       <c r="AB37">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD37">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE37">
         <v>35</v>
       </c>
       <c r="AF37">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG37">
         <v>35</v>
       </c>
       <c r="AH37">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AI37">
+        <v>34</v>
+      </c>
+      <c r="AJ37">
+        <v>1.4</v>
+      </c>
+      <c r="AK37">
         <v>35</v>
       </c>
-      <c r="AJ37">
-        <v>4</v>
-      </c>
-      <c r="AK37">
-        <v>34</v>
-      </c>
       <c r="AL37">
-        <v>1.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN37">
-        <v>2001.8</v>
+        <v>0.6</v>
       </c>
       <c r="AO37">
         <v>36</v>
       </c>
       <c r="AP37">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="AR37">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS37">
         <v>198</v>
       </c>
       <c r="AT37">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AU37">
+        <v>196</v>
+      </c>
+      <c r="AV37">
+        <v>2.9</v>
+      </c>
+      <c r="AW37">
         <v>198</v>
       </c>
-      <c r="AV37">
-        <v>2.6</v>
-      </c>
-      <c r="AW37">
-        <v>196</v>
-      </c>
       <c r="AX37">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AY37">
         <v>198</v>
@@ -6727,61 +6589,55 @@
         <v>198</v>
       </c>
       <c r="BB37">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BC37">
         <v>198</v>
       </c>
       <c r="BD37">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BE37">
+        <v>197</v>
+      </c>
+      <c r="BF37">
+        <v>3.3</v>
+      </c>
+      <c r="BG37">
         <v>198</v>
       </c>
-      <c r="BF37">
-        <v>2.5</v>
-      </c>
-      <c r="BG37">
-        <v>197</v>
-      </c>
       <c r="BH37">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BI37">
         <v>198</v>
       </c>
       <c r="BJ37">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BK37">
         <v>198</v>
       </c>
       <c r="BL37">
+        <v>3.6</v>
+      </c>
+      <c r="BM37">
+        <v>202</v>
+      </c>
+      <c r="BN37">
         <v>2.9</v>
       </c>
-      <c r="BM37">
-        <v>198</v>
-      </c>
-      <c r="BN37">
-        <v>3.6</v>
-      </c>
       <c r="BO37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BP37">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BQ37">
-        <v>201</v>
-      </c>
-      <c r="BR37">
-        <v>2.3</v>
-      </c>
-      <c r="BS37">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="1:69">
       <c r="A38" s="1">
         <v>82</v>
       </c>
@@ -6840,91 +6696,91 @@
         <v>103</v>
       </c>
       <c r="T38">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="U38">
         <v>103</v>
       </c>
       <c r="V38">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
         <v>103</v>
       </c>
       <c r="X38">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y38">
         <v>103</v>
       </c>
       <c r="Z38">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA38">
         <v>103</v>
       </c>
       <c r="AB38">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC38">
         <v>103</v>
       </c>
       <c r="AD38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE38">
         <v>103</v>
       </c>
       <c r="AF38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG38">
         <v>103</v>
       </c>
       <c r="AH38">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AI38">
         <v>103</v>
       </c>
       <c r="AJ38">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="AK38">
+        <v>102</v>
+      </c>
+      <c r="AL38">
+        <v>13.3</v>
+      </c>
+      <c r="AM38">
         <v>103</v>
       </c>
-      <c r="AL38">
-        <v>1.5</v>
-      </c>
-      <c r="AM38">
-        <v>102</v>
-      </c>
       <c r="AN38">
-        <v>1997.7</v>
+        <v>1.1</v>
       </c>
       <c r="AO38">
         <v>103</v>
       </c>
       <c r="AP38">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="AQ38">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="AR38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AS38">
         <v>66</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU38">
         <v>66</v>
       </c>
       <c r="AV38">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AW38">
         <v>66</v>
@@ -6933,70 +6789,64 @@
         <v>3</v>
       </c>
       <c r="AY38">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AZ38">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BA38">
+        <v>64</v>
+      </c>
+      <c r="BB38">
+        <v>3.2</v>
+      </c>
+      <c r="BC38">
         <v>65</v>
       </c>
-      <c r="BB38">
-        <v>2.8</v>
-      </c>
-      <c r="BC38">
-        <v>64</v>
-      </c>
       <c r="BD38">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE38">
         <v>65</v>
       </c>
       <c r="BF38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="BG38">
         <v>65</v>
       </c>
       <c r="BH38">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BI38">
         <v>65</v>
       </c>
       <c r="BJ38">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BK38">
         <v>65</v>
       </c>
       <c r="BL38">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="BM38">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN38">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="BO38">
         <v>66</v>
       </c>
       <c r="BP38">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BQ38">
         <v>66</v>
       </c>
-      <c r="BR38">
-        <v>2.4</v>
-      </c>
-      <c r="BS38">
-        <v>66</v>
-      </c>
     </row>
-    <row r="39" spans="1:71">
+    <row r="39" spans="1:69">
       <c r="A39" s="1">
         <v>83</v>
       </c>
@@ -7055,163 +6905,157 @@
         <v>91</v>
       </c>
       <c r="T39">
+        <v>4.5</v>
+      </c>
+      <c r="U39">
+        <v>89</v>
+      </c>
+      <c r="V39">
+        <v>1.7</v>
+      </c>
+      <c r="W39">
+        <v>91</v>
+      </c>
+      <c r="X39">
         <v>1.5</v>
-      </c>
-      <c r="U39">
-        <v>91</v>
-      </c>
-      <c r="V39">
-        <v>4.5</v>
-      </c>
-      <c r="W39">
-        <v>89</v>
-      </c>
-      <c r="X39">
-        <v>1.7</v>
       </c>
       <c r="Y39">
         <v>91</v>
       </c>
       <c r="Z39">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA39">
         <v>91</v>
       </c>
       <c r="AB39">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC39">
         <v>91</v>
       </c>
       <c r="AD39">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AE39">
         <v>91</v>
       </c>
       <c r="AF39">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AG39">
         <v>91</v>
       </c>
       <c r="AH39">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AI39">
         <v>91</v>
       </c>
       <c r="AJ39">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="AK39">
+        <v>87</v>
+      </c>
+      <c r="AL39">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM39">
+        <v>89</v>
+      </c>
+      <c r="AN39">
+        <v>1.7</v>
+      </c>
+      <c r="AO39">
         <v>91</v>
       </c>
-      <c r="AL39">
-        <v>1.1</v>
-      </c>
-      <c r="AM39">
-        <v>87</v>
-      </c>
-      <c r="AN39">
-        <v>2001.2</v>
-      </c>
-      <c r="AO39">
-        <v>89</v>
-      </c>
       <c r="AP39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="AR39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AS39">
+        <v>308</v>
+      </c>
+      <c r="AT39">
+        <v>2.4</v>
+      </c>
+      <c r="AU39">
         <v>307</v>
       </c>
-      <c r="AT39">
-        <v>2.2</v>
-      </c>
-      <c r="AU39">
+      <c r="AV39">
+        <v>2.9</v>
+      </c>
+      <c r="AW39">
         <v>308</v>
       </c>
-      <c r="AV39">
+      <c r="AX39">
+        <v>2.7</v>
+      </c>
+      <c r="AY39">
+        <v>307</v>
+      </c>
+      <c r="AZ39">
+        <v>2.6</v>
+      </c>
+      <c r="BA39">
+        <v>306</v>
+      </c>
+      <c r="BB39">
+        <v>3.1</v>
+      </c>
+      <c r="BC39">
+        <v>307</v>
+      </c>
+      <c r="BD39">
         <v>2.4</v>
       </c>
-      <c r="AW39">
+      <c r="BE39">
+        <v>306</v>
+      </c>
+      <c r="BF39">
+        <v>3.6</v>
+      </c>
+      <c r="BG39">
+        <v>308</v>
+      </c>
+      <c r="BH39">
+        <v>3.4</v>
+      </c>
+      <c r="BI39">
         <v>307</v>
       </c>
-      <c r="AX39">
-        <v>2.9</v>
-      </c>
-      <c r="AY39">
-        <v>308</v>
-      </c>
-      <c r="AZ39">
-        <v>2.7</v>
-      </c>
-      <c r="BA39">
-        <v>307</v>
-      </c>
-      <c r="BB39">
-        <v>2.6</v>
-      </c>
-      <c r="BC39">
-        <v>306</v>
-      </c>
-      <c r="BD39">
-        <v>3.1</v>
-      </c>
-      <c r="BE39">
-        <v>307</v>
-      </c>
-      <c r="BF39">
-        <v>2.4</v>
-      </c>
-      <c r="BG39">
-        <v>306</v>
-      </c>
-      <c r="BH39">
-        <v>3.6</v>
-      </c>
-      <c r="BI39">
-        <v>308</v>
-      </c>
       <c r="BJ39">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BK39">
         <v>307</v>
       </c>
       <c r="BL39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="BM39">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="BN39">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BO39">
         <v>309</v>
       </c>
       <c r="BP39">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BQ39">
-        <v>309</v>
-      </c>
-      <c r="BR39">
-        <v>2.3</v>
-      </c>
-      <c r="BS39">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="1:69">
       <c r="A40" s="1">
         <v>91</v>
       </c>
@@ -7270,94 +7114,94 @@
         <v>93</v>
       </c>
       <c r="T40">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="U40">
         <v>92</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
+        <v>93</v>
+      </c>
+      <c r="X40">
+        <v>1.4</v>
+      </c>
+      <c r="Y40">
         <v>92</v>
       </c>
-      <c r="X40">
-        <v>1.8</v>
-      </c>
-      <c r="Y40">
+      <c r="Z40">
+        <v>1.7</v>
+      </c>
+      <c r="AA40">
         <v>93</v>
       </c>
-      <c r="Z40">
-        <v>1.4</v>
-      </c>
-      <c r="AA40">
+      <c r="AB40">
+        <v>2.9</v>
+      </c>
+      <c r="AC40">
         <v>92</v>
       </c>
-      <c r="AB40">
-        <v>1.7</v>
-      </c>
-      <c r="AC40">
-        <v>93</v>
-      </c>
       <c r="AD40">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AE40">
         <v>92</v>
       </c>
       <c r="AF40">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG40">
         <v>92</v>
       </c>
       <c r="AH40">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AI40">
         <v>92</v>
       </c>
       <c r="AJ40">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="AK40">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AL40">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AM40">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AN40">
-        <v>2001.7</v>
+        <v>0.2</v>
       </c>
       <c r="AO40">
         <v>93</v>
       </c>
       <c r="AP40">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AR40">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AS40">
         <v>89</v>
       </c>
       <c r="AT40">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU40">
         <v>89</v>
       </c>
       <c r="AV40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AW40">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AX40">
         <v>3</v>
@@ -7366,67 +7210,61 @@
         <v>90</v>
       </c>
       <c r="AZ40">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BA40">
         <v>90</v>
       </c>
       <c r="BB40">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BC40">
         <v>90</v>
       </c>
       <c r="BD40">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="BE40">
         <v>90</v>
       </c>
       <c r="BF40">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="BG40">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BH40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BI40">
+        <v>88</v>
+      </c>
+      <c r="BJ40">
+        <v>2.5</v>
+      </c>
+      <c r="BK40">
         <v>89</v>
       </c>
-      <c r="BJ40">
-        <v>3</v>
-      </c>
-      <c r="BK40">
-        <v>88</v>
-      </c>
       <c r="BL40">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="BM40">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BN40">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BO40">
         <v>91</v>
       </c>
       <c r="BP40">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BQ40">
         <v>91</v>
       </c>
-      <c r="BR40">
-        <v>2.6</v>
-      </c>
-      <c r="BS40">
-        <v>91</v>
-      </c>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="1:69">
       <c r="A41" s="1">
         <v>92</v>
       </c>
@@ -7490,17 +7328,20 @@
       <c r="AO41">
         <v>0</v>
       </c>
+      <c r="AP41">
+        <v>2.8</v>
+      </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR41">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AS41">
         <v>4</v>
       </c>
       <c r="AT41">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -7512,55 +7353,55 @@
         <v>4</v>
       </c>
       <c r="AX41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AY41">
         <v>4</v>
       </c>
       <c r="AZ41">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BA41">
         <v>4</v>
       </c>
       <c r="BB41">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BC41">
         <v>4</v>
       </c>
       <c r="BD41">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BE41">
         <v>4</v>
       </c>
       <c r="BF41">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="BG41">
         <v>4</v>
       </c>
       <c r="BH41">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BI41">
         <v>4</v>
       </c>
       <c r="BJ41">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="BK41">
         <v>4</v>
       </c>
       <c r="BL41">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="BM41">
         <v>4</v>
       </c>
       <c r="BN41">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BO41">
         <v>4</v>
@@ -7571,14 +7412,8 @@
       <c r="BQ41">
         <v>4</v>
       </c>
-      <c r="BR41">
-        <v>3.2</v>
-      </c>
-      <c r="BS41">
-        <v>4</v>
-      </c>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="1:69">
       <c r="A42" s="1">
         <v>93</v>
       </c>
@@ -7637,121 +7472,121 @@
         <v>9</v>
       </c>
       <c r="T42">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="U42">
         <v>9</v>
       </c>
       <c r="V42">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="W42">
         <v>9</v>
       </c>
       <c r="X42">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y42">
         <v>9</v>
       </c>
       <c r="Z42">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AA42">
         <v>9</v>
       </c>
       <c r="AB42">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC42">
         <v>9</v>
       </c>
       <c r="AD42">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE42">
         <v>9</v>
       </c>
       <c r="AF42">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AG42">
         <v>9</v>
       </c>
       <c r="AH42">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI42">
         <v>9</v>
       </c>
       <c r="AJ42">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AK42">
         <v>9</v>
       </c>
       <c r="AL42">
-        <v>0.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM42">
         <v>9</v>
       </c>
       <c r="AN42">
-        <v>2001.8</v>
+        <v>0.3</v>
       </c>
       <c r="AO42">
         <v>9</v>
       </c>
       <c r="AP42">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ42">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AR42">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AS42">
         <v>39</v>
       </c>
       <c r="AT42">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AU42">
         <v>39</v>
       </c>
       <c r="AV42">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AW42">
         <v>39</v>
       </c>
       <c r="AX42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AY42">
         <v>39</v>
       </c>
       <c r="AZ42">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BA42">
         <v>39</v>
       </c>
       <c r="BB42">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BC42">
         <v>39</v>
       </c>
       <c r="BD42">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE42">
         <v>39</v>
       </c>
       <c r="BF42">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="BG42">
         <v>39</v>
@@ -7763,42 +7598,42 @@
         <v>39</v>
       </c>
       <c r="BJ42">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BK42">
         <v>39</v>
       </c>
       <c r="BL42">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="BM42">
         <v>39</v>
       </c>
       <c r="BN42">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="BO42">
         <v>39</v>
       </c>
       <c r="BP42">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="BQ42">
         <v>39</v>
       </c>
-      <c r="BR42">
-        <v>2.4</v>
-      </c>
-      <c r="BS42">
-        <v>39</v>
-      </c>
     </row>
-    <row r="43" spans="1:71">
+    <row r="43" spans="1:69">
       <c r="A43" s="1">
         <v>94</v>
       </c>
+      <c r="AP43">
+        <v>2.6</v>
+      </c>
+      <c r="AQ43">
+        <v>59</v>
+      </c>
       <c r="AR43">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AS43">
         <v>59</v>
@@ -7807,171 +7642,165 @@
         <v>2.4</v>
       </c>
       <c r="AU43">
+        <v>58</v>
+      </c>
+      <c r="AV43">
+        <v>3.3</v>
+      </c>
+      <c r="AW43">
+        <v>60</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
         <v>59</v>
       </c>
-      <c r="AV43">
-        <v>2.4</v>
-      </c>
-      <c r="AW43">
-        <v>58</v>
-      </c>
-      <c r="AX43">
-        <v>3.3</v>
-      </c>
-      <c r="AY43">
-        <v>60</v>
-      </c>
       <c r="AZ43">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BA43">
         <v>59</v>
       </c>
       <c r="BB43">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BC43">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD43">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="BE43">
         <v>60</v>
       </c>
       <c r="BF43">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="BG43">
+        <v>59</v>
+      </c>
+      <c r="BH43">
+        <v>3.3</v>
+      </c>
+      <c r="BI43">
         <v>60</v>
       </c>
-      <c r="BH43">
-        <v>3.2</v>
-      </c>
-      <c r="BI43">
+      <c r="BJ43">
+        <v>3</v>
+      </c>
+      <c r="BK43">
+        <v>61</v>
+      </c>
+      <c r="BL43">
+        <v>3.7</v>
+      </c>
+      <c r="BM43">
         <v>59</v>
       </c>
-      <c r="BJ43">
-        <v>3.3</v>
-      </c>
-      <c r="BK43">
-        <v>60</v>
-      </c>
-      <c r="BL43">
-        <v>3</v>
-      </c>
-      <c r="BM43">
-        <v>61</v>
-      </c>
       <c r="BN43">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="BO43">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BP43">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BQ43">
         <v>58</v>
       </c>
-      <c r="BR43">
-        <v>2.8</v>
-      </c>
-      <c r="BS43">
-        <v>58</v>
-      </c>
     </row>
-    <row r="44" spans="1:71">
+    <row r="44" spans="1:69">
       <c r="A44" s="1">
         <v>96</v>
       </c>
+      <c r="AP44">
+        <v>2.3</v>
+      </c>
+      <c r="AQ44">
+        <v>39</v>
+      </c>
       <c r="AR44">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AS44">
         <v>39</v>
       </c>
       <c r="AT44">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AU44">
         <v>39</v>
       </c>
       <c r="AV44">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AW44">
         <v>39</v>
       </c>
       <c r="AX44">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AY44">
         <v>39</v>
       </c>
       <c r="AZ44">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BA44">
         <v>39</v>
       </c>
       <c r="BB44">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="BC44">
         <v>39</v>
       </c>
       <c r="BD44">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="BE44">
         <v>39</v>
       </c>
       <c r="BF44">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="BG44">
         <v>39</v>
       </c>
       <c r="BH44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BI44">
         <v>39</v>
       </c>
       <c r="BJ44">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="BK44">
         <v>39</v>
       </c>
       <c r="BL44">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="BM44">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BN44">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BO44">
         <v>40</v>
       </c>
       <c r="BP44">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BQ44">
         <v>40</v>
       </c>
-      <c r="BR44">
-        <v>2.4</v>
-      </c>
-      <c r="BS44">
-        <v>40</v>
-      </c>
     </row>
-    <row r="45" spans="1:71">
+    <row r="45" spans="1:69">
       <c r="A45" s="1">
         <v>99</v>
       </c>
@@ -8030,19 +7859,19 @@
         <v>2</v>
       </c>
       <c r="T45">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="U45">
         <v>2</v>
       </c>
       <c r="V45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>2</v>
       </c>
       <c r="X45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y45">
         <v>2</v>
@@ -8054,25 +7883,25 @@
         <v>2</v>
       </c>
       <c r="AB45">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC45">
         <v>2</v>
       </c>
       <c r="AD45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AE45">
         <v>2</v>
       </c>
       <c r="AF45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AG45">
         <v>2</v>
       </c>
       <c r="AH45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AI45">
         <v>2</v>
@@ -8084,21 +7913,15 @@
         <v>2</v>
       </c>
       <c r="AL45">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="AM45">
         <v>2</v>
       </c>
       <c r="AN45">
-        <v>1998.5</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>2</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
         <v>2</v>
       </c>
     </row>
